--- a/data/processed/preprocessing_numerical.xlsx
+++ b/data/processed/preprocessing_numerical.xlsx
@@ -1,37 +1,150 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>Avg_min_between_sent_tnx</t>
+  </si>
+  <si>
+    <t>Avg_min_between_received_tnx</t>
+  </si>
+  <si>
+    <t>Time_Diff_between_first_and_last_(Mins)</t>
+  </si>
+  <si>
+    <t>Sent_tnx</t>
+  </si>
+  <si>
+    <t>Received_Tnx</t>
+  </si>
+  <si>
+    <t>Number_of_Created_Contracts</t>
+  </si>
+  <si>
+    <t>Unique_Received_From_Addresses</t>
+  </si>
+  <si>
+    <t>Unique_Sent_To_Addresses</t>
+  </si>
+  <si>
+    <t>min_value_received</t>
+  </si>
+  <si>
+    <t>max_value_received</t>
+  </si>
+  <si>
+    <t>avg_val_received</t>
+  </si>
+  <si>
+    <t>min_val_sent</t>
+  </si>
+  <si>
+    <t>max_val_sent</t>
+  </si>
+  <si>
+    <t>avg_val_sent</t>
+  </si>
+  <si>
+    <t>total_transactions_(including_tnx_to_create_contract)</t>
+  </si>
+  <si>
+    <t>total_Ether_sent</t>
+  </si>
+  <si>
+    <t>total_ether_received</t>
+  </si>
+  <si>
+    <t>total_ether_balance</t>
+  </si>
+  <si>
+    <t>Total_ERC20_tnxs</t>
+  </si>
+  <si>
+    <t>ERC20_total_Ether_received</t>
+  </si>
+  <si>
+    <t>ERC20_total_ether_sent</t>
+  </si>
+  <si>
+    <t>ERC20_total_Ether_sent_contract</t>
+  </si>
+  <si>
+    <t>ERC20_uniq_sent_addr</t>
+  </si>
+  <si>
+    <t>ERC20_uniq_rec_addr</t>
+  </si>
+  <si>
+    <t>ERC20_uniq_rec_contract_addr</t>
+  </si>
+  <si>
+    <t>ERC20_avg_time_between_contract_tnx</t>
+  </si>
+  <si>
+    <t>ERC20_min_val_rec</t>
+  </si>
+  <si>
+    <t>ERC20_max_val_rec</t>
+  </si>
+  <si>
+    <t>ERC20_avg_val_rec</t>
+  </si>
+  <si>
+    <t>ERC20_min_val_sent</t>
+  </si>
+  <si>
+    <t>ERC20_max_val_sent</t>
+  </si>
+  <si>
+    <t>ERC20_avg_val_sent</t>
+  </si>
+  <si>
+    <t>ERC20_uniq_sent_token_name</t>
+  </si>
+  <si>
+    <t>ERC20_uniq_rec_token_name</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +159,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,367 +475,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mediana</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Avg_min_between_sent_tnx</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>3.26</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Avg_min_between_received_tnx</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>93.48999999999999</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Time_Diff_between_first_and_last_(Mins)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>10561.05</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Sent_tnx</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Received_Tnx</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Number_of_Created_Contracts</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Unique_Received_From_Addresses</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Unique_Sent_To_Addresses</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>min_value_received</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>0.046531</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>max_value_received</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>4</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>avg_val_received</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>1.05</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>min_val_sent</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>0.058059</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>max_val_sent</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>2.883053</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>avg_val_sent</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>1.244517</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>total_transactions_(including_tnx_to_create_contract)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>6</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>total_Ether_sent</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>4.717131</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>total_ether_received</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>16.59905855</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>total_ether_balance</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>0.001544256</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total_ERC20_tnxs</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>ERC20_total_Ether_received</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>1.337</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>ERC20_total_ether_sent</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>ERC20_total_Ether_sent_contract</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>ERC20_uniq_sent_addr</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>ERC20_uniq_rec_addr</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>ERC20_uniq_rec_contract_addr</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>ERC20_avg_time_between_contract_tnx</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>ERC20_min_val_rec</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>ERC20_max_val_rec</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>1.337</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>ERC20_avg_val_rec</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>0.8664350000000001</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>ERC20_min_val_sent</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>ERC20_max_val_sent</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>ERC20_avg_val_sent</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>ERC20_uniq_sent_token_name</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>ERC20_uniq_rec_token_name</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/processed/preprocessing_numerical.xlsx
+++ b/data/processed/preprocessing_numerical.xlsx
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.26</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>93.48999999999999</v>
+        <v>95.36499999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10561.05</v>
+        <v>10655.115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.046531</v>
+        <v>0.04434399999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -572,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.0503985</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -580,7 +580,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.058059</v>
+        <v>0.05594</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -588,7 +588,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.883053</v>
+        <v>2.860664</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -596,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.244517</v>
+        <v>1.2350985</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -612,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4.717131</v>
+        <v>4.570527687</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -620,7 +620,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>16.59905855</v>
+        <v>16.55799596</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -628,7 +628,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.001544256</v>
+        <v>0.001536086</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -716,7 +716,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.8664350000000001</v>
+        <v>0.760243</v>
       </c>
     </row>
     <row r="31" spans="1:2">
